--- a/biology/Botanique/Coteaux-bourguignons/Coteaux-bourguignons.xlsx
+++ b/biology/Botanique/Coteaux-bourguignons/Coteaux-bourguignons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le coteaux-bourguignons[2] est un vin français d'appellation d'origine contrôlée (AOC), produit en rouge, en rosé, et en blanc. Jusqu'en 2011[3], il s'est appelé bourgogne-ordinaire ou bourgogne-grand-ordinaire[2] (dit aussi BGO).
+Le coteaux-bourguignons est un vin français d'appellation d'origine contrôlée (AOC), produit en rouge, en rosé, et en blanc. Jusqu'en 2011, il s'est appelé bourgogne-ordinaire ou bourgogne-grand-ordinaire (dit aussi BGO).
 Il s'agit d'une AOC régionale, commune à tout le vignoble de Bourgogne : ils sont produits dans les départements de l'Yonne, de la Côte-d'Or, de Saône-et-Loire et du Rhône.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012, l’appellation d’origine contrôlée « coteaux bourguignons » remplace celle de « bourgogne grand ordinaire »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, l’appellation d’origine contrôlée « coteaux bourguignons » remplace celle de « bourgogne grand ordinaire ».
 </t>
         </is>
       </c>
@@ -546,14 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation
-AOC régionale pouvant être produit sur les départements de l'Yonne (54 communes), de la Côte-d'Or (91 communes) et de Saône-et-Loire. Il représente une superficie de 135 hectares[4] avec 110 hectares de vins rouges et rosés, 25 hectares de vins blancs. Les cépages utilisés sont le pinot noir, le gamay, et pour le seul département de l'Yonne le césar et le tressot pour les vins rouges et rosés. Le chardonnay, l'aligoté, le melon de bourgogne et pour le seul département de l'Yonne, le sacy pour les vins blancs. Les volumes de production sont de 6735 hectolitres de vins rouges et rosés, de 1495 hectolitres de vins blancs[4].
-Géologie
-Ce sont des sols argilo-calcaires.
-Types de vins, gastronomie et températures de service
-Les vins rouges s'accordent bien avec des viandes blanches, des volailles, du lapin... Ils se servent entre 12 et 14 degrés et se gardent entre 2 et 5 ans.[réf. souhaitée]
-Les vins blancs s'accordent bien avec du poisson, des fromages (gouda, comté par exemple)... Ils se servent entre 11 et 13 degrés et se gardent entre 1 et 3 ans.[réf. souhaitée]
-Les vins rosés se servent entre 8 et 10 degrés et se gardent 1 à 2 ans environ.[réf. souhaitée]
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AOC régionale pouvant être produit sur les départements de l'Yonne (54 communes), de la Côte-d'Or (91 communes) et de Saône-et-Loire. Il représente une superficie de 135 hectares avec 110 hectares de vins rouges et rosés, 25 hectares de vins blancs. Les cépages utilisés sont le pinot noir, le gamay, et pour le seul département de l'Yonne le césar et le tressot pour les vins rouges et rosés. Le chardonnay, l'aligoté, le melon de bourgogne et pour le seul département de l'Yonne, le sacy pour les vins blancs. Les volumes de production sont de 6735 hectolitres de vins rouges et rosés, de 1495 hectolitres de vins blancs.
 </t>
         </is>
       </c>
@@ -579,10 +592,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des sols argilo-calcaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coteaux-bourguignons</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-bourguignons</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Types de vins, gastronomie et températures de service</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins rouges s'accordent bien avec des viandes blanches, des volailles, du lapin... Ils se servent entre 12 et 14 degrés et se gardent entre 2 et 5 ans.[réf. souhaitée]
+Les vins blancs s'accordent bien avec du poisson, des fromages (gouda, comté par exemple)... Ils se servent entre 11 et 13 degrés et se gardent entre 1 et 3 ans.[réf. souhaitée]
+Les vins rosés se servent entre 8 et 10 degrés et se gardent 1 à 2 ans environ.[réf. souhaitée]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coteaux-bourguignons</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-bourguignons</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>André Dominé : Le vin</t>
         </is>
